--- a/data/4sensors/PCA.xlsx
+++ b/data/4sensors/PCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1004 +436,1119 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CFU/mL</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>PC2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PC2_Analyte1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PC2_Analyte2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PC2_Analyte3</t>
+          <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>800</v>
+        <v>289.1887473261708</v>
       </c>
       <c r="B2" t="n">
-        <v>52.05483307859117</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>260.9561201342733</v>
+        <v>-152.0388798674431</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>490</v>
+        <v>389.7667894564345</v>
       </c>
       <c r="B3" t="n">
-        <v>371.2789611922783</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>-87.75927709782701</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>316.9106124406529</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3050</v>
+        <v>-199.3523126248184</v>
       </c>
       <c r="B4" t="n">
-        <v>-182.6605846526846</v>
+        <v>-55.9630606094878</v>
       </c>
       <c r="C4" t="n">
-        <v>-85.78530718013032</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30556.04118861206</v>
+        <v>-74.05644993546548</v>
       </c>
       <c r="B5" t="n">
-        <v>-84.67021560100613</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>197.3017482561911</v>
+        <v>-55.77988958084029</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-75.03655638196733</v>
       </c>
       <c r="B6" t="n">
-        <v>464.6279540847297</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>-128.0580624783114</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>-54.87492175972766</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38148.56238884891</v>
+        <v>-106.7722124775051</v>
       </c>
       <c r="B7" t="n">
-        <v>-93.12686763880549</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>195.1094602637569</v>
+        <v>-50.14246927169754</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>329549.1953043724</v>
+        <v>-24.98952457892904</v>
       </c>
       <c r="B8" t="n">
-        <v>-235.7378199641302</v>
+        <v>221.6160259051301</v>
       </c>
       <c r="C8" t="n">
-        <v>-96.65811261013016</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48585266.5503143</v>
+        <v>-99.43675425363608</v>
       </c>
       <c r="B9" t="n">
-        <v>178.0905250196977</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>-0.2182192665637785</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>-49.27524003263412</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>305000</v>
+        <v>478.9628005779773</v>
       </c>
       <c r="B10" t="n">
-        <v>-234.9312467052144</v>
+        <v>9.047715762511366</v>
       </c>
       <c r="C10" t="n">
-        <v>-93.24456569571633</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>288.3639345577129</v>
       </c>
       <c r="B11" t="n">
-        <v>428.0450497300678</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>34.59891380960204</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>-149.3220505375997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80</v>
+        <v>-185.5992175766583</v>
       </c>
       <c r="B12" t="n">
-        <v>-142.0522189735852</v>
+        <v>133.8898639782341</v>
       </c>
       <c r="C12" t="n">
-        <v>-78.48537342826563</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>48933670.71017869</v>
+        <v>-185.3816914936651</v>
       </c>
       <c r="B13" t="n">
-        <v>179.4368301823976</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>-5.593762898303353</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>134.0581215075621</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30684463.34313393</v>
+        <v>-97.78712900050095</v>
       </c>
       <c r="B14" t="n">
-        <v>-291.3994621867172</v>
+        <v>179.8397009787162</v>
       </c>
       <c r="C14" t="n">
-        <v>-101.3002099379864</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4920</v>
+        <v>-219.8356948042841</v>
       </c>
       <c r="B15" t="n">
-        <v>343.2744028773413</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>-105.3412927977829</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>-68.69706147503805</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>335166.6920735188</v>
+        <v>-22.73254419228135</v>
       </c>
       <c r="B16" t="n">
-        <v>297.4014156781475</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>-173.8726005414044</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>221.7795248720895</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>60</v>
+        <v>-122.2256139257396</v>
       </c>
       <c r="B17" t="n">
-        <v>152.1558592274546</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>288.8414042777968</v>
+        <v>-51.36288551710836</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>30291286.90646695</v>
+        <v>389.3695903046505</v>
       </c>
       <c r="B18" t="n">
-        <v>-291.2689562085093</v>
+        <v>316.595303695943</v>
       </c>
       <c r="C18" t="n">
-        <v>-101.1837018173</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2894954.494053226</v>
+        <v>229.0943638727991</v>
       </c>
       <c r="B19" t="n">
-        <v>-247.6658476393872</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>88.87932083499967</v>
+        <v>4.775373774009395</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>288000</v>
+        <v>-175.9068521918234</v>
       </c>
       <c r="B20" t="n">
-        <v>-165.7696219290018</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>144.9239438009894</v>
+        <v>-57.11833730756772</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2880</v>
+        <v>229.3802405484061</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2044362789054048</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>243.1029914337431</v>
+        <v>2.071510289176402</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>49044581.41950125</v>
+        <v>229.5299325741297</v>
       </c>
       <c r="B22" t="n">
-        <v>178.8491423519215</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>-3.481277812004393</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>1.420807624161988</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>324879.1482733022</v>
+        <v>-104.3378561071653</v>
       </c>
       <c r="B23" t="n">
-        <v>-235.6984053389222</v>
+        <v>179.8156968385322</v>
       </c>
       <c r="C23" t="n">
-        <v>-96.19476006609007</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2695592.704856827</v>
+        <v>-196.4450881565586</v>
       </c>
       <c r="B24" t="n">
-        <v>-258.5747609419027</v>
+        <v>-56.44518229597892</v>
       </c>
       <c r="C24" t="n">
-        <v>-112.8989468048538</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28800</v>
+        <v>-248.7458944916989</v>
       </c>
       <c r="B25" t="n">
-        <v>-82.51420706486135</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>198.3712200501585</v>
+        <v>-51.70266327427902</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4980412.217611824</v>
+        <v>-45.41979457005732</v>
       </c>
       <c r="B26" t="n">
-        <v>250.6955860534158</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
-        <v>-147.3287784304885</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>-68.35624769536579</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>49200000</v>
+        <v>-185.7851546884179</v>
       </c>
       <c r="B27" t="n">
-        <v>178.6388513671894</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>-2.850663976351385</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
+        <v>133.7395765126768</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4429594.436841236</v>
+        <v>229.9108881504436</v>
       </c>
       <c r="B28" t="n">
-        <v>252.0593666178642</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>-146.1875629239729</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>-0.7397736244740472</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>160</v>
+        <v>-248.7458944916989</v>
       </c>
       <c r="B29" t="n">
-        <v>114.8031045460492</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>278.4221990674499</v>
+        <v>-51.70266327427902</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4303973.843162411</v>
+        <v>-92.57740908959909</v>
       </c>
       <c r="B30" t="n">
-        <v>253.1365939130876</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="n">
-        <v>-148.8239552734112</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+        <v>-48.12632955179084</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3227476.74352717</v>
+        <v>-85.67131021781734</v>
       </c>
       <c r="B31" t="n">
-        <v>-260.5096261716636</v>
+        <v>-47.68077021800234</v>
       </c>
       <c r="C31" t="n">
-        <v>-113.3337576441395</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>-248.6098498518783</v>
       </c>
       <c r="B32" t="n">
-        <v>427.0639025489102</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="n">
-        <v>30.61605239255954</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+        <v>-51.86119989038011</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>135412.953500118</v>
+        <v>-193.8145074549917</v>
       </c>
       <c r="B33" t="n">
-        <v>-226.3402931783166</v>
+        <v>-56.41389952595271</v>
       </c>
       <c r="C33" t="n">
-        <v>-93.56479057409763</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>700</v>
+        <v>-99.41826576380709</v>
       </c>
       <c r="B34" t="n">
-        <v>-166.1125395222825</v>
+        <v>-49.27261285958849</v>
       </c>
       <c r="C34" t="n">
-        <v>-83.326956805272</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>40</v>
+        <v>325.1440399343901</v>
       </c>
       <c r="B35" t="n">
-        <v>382.1767136535273</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
-        <v>4.449109679090824</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
+        <v>-182.3693137109735</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>307452.0804862558</v>
+        <v>-154.9363153064115</v>
       </c>
       <c r="B36" t="n">
-        <v>-168.5138360252582</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>145.2327932696109</v>
+        <v>-49.21800557863148</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4917315.128981112</v>
+        <v>-40.43796043346481</v>
       </c>
       <c r="B37" t="n">
-        <v>250.3847601931029</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>-145.5246782130435</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
+        <v>-96.21980271964688</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30356066.28484008</v>
+        <v>-192.8810499972059</v>
       </c>
       <c r="B38" t="n">
-        <v>-291.2291029989611</v>
+        <v>-53.67095820221085</v>
       </c>
       <c r="C38" t="n">
-        <v>-101.3021232664925</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2882822.168529236</v>
+        <v>-185.439455626529</v>
       </c>
       <c r="B39" t="n">
-        <v>-247.5256732703453</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
-        <v>89.34316522359182</v>
+        <v>134.2801636030605</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>-145.7593784912675</v>
       </c>
       <c r="B40" t="n">
-        <v>194.205132162689</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>300.2073080702708</v>
+        <v>-51.39469753235755</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5043309.206599923</v>
+        <v>-217.5034878556209</v>
       </c>
       <c r="B41" t="n">
-        <v>250.2156212274159</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>-146.1378127699327</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+        <v>-68.10030880932092</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40376.2137451594</v>
+        <v>-137.3329732886152</v>
       </c>
       <c r="B42" t="n">
-        <v>-95.35615955826916</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>194.7311205030554</v>
+        <v>-52.37975736794529</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3036921.674397244</v>
+        <v>-248.5112844938113</v>
       </c>
       <c r="B43" t="n">
-        <v>-259.8738805965264</v>
+        <v>-52.07989504091809</v>
       </c>
       <c r="C43" t="n">
-        <v>-113.3315819221102</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>644155.5325713719</v>
+        <v>-219.4794364065402</v>
       </c>
       <c r="B44" t="n">
-        <v>288.296701919932</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>-174.1854047898192</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
+        <v>-68.35992107548259</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>274574.2547322999</v>
+        <v>331.8802195817757</v>
       </c>
       <c r="B45" t="n">
-        <v>-163.8087479332854</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>144.8757835309</v>
+        <v>-182.2108390718925</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4920000</v>
+        <v>-114.5310473526418</v>
       </c>
       <c r="B46" t="n">
-        <v>250.6488892604917</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
-        <v>-146.4757128137002</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
+        <v>-50.75504477846838</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3050000</v>
+        <v>-99.11023409860297</v>
       </c>
       <c r="B47" t="n">
-        <v>-259.7890440243915</v>
+        <v>180.5488653703811</v>
       </c>
       <c r="C47" t="n">
-        <v>-113.7387148353168</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2843404.369240924</v>
+        <v>501.5126801975005</v>
       </c>
       <c r="B48" t="n">
-        <v>-246.77042475538</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>88.24904895928668</v>
+        <v>-152.7566243882699</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>49186920.39333353</v>
+        <v>-193.7299488685932</v>
       </c>
       <c r="B49" t="n">
-        <v>178.9444691390953</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
-        <v>-3.981797805376004</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
+        <v>-55.95368611691067</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49200</v>
+        <v>-123.7612021296505</v>
       </c>
       <c r="B50" t="n">
-        <v>316.2644508708104</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
-        <v>-129.9275081257115</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
+        <v>-51.492770836369</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>-250.4081354010916</v>
       </c>
       <c r="B51" t="n">
-        <v>308.7255174473059</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>332.1325677478408</v>
+        <v>-37.88493914548859</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>-218.9435670806243</v>
       </c>
       <c r="B52" t="n">
-        <v>-78.42218082923262</v>
+        <v>-68.83902037464847</v>
       </c>
       <c r="C52" t="n">
-        <v>-117.0697025171321</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>279328.569773039</v>
+        <v>321.3446641755136</v>
       </c>
       <c r="B53" t="n">
-        <v>-164.3931575874088</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>144.3212881583844</v>
+        <v>-181.893839124279</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>-218.8269340621318</v>
       </c>
       <c r="B54" t="n">
-        <v>309.2623139801134</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>332.9724705655458</v>
+        <v>-68.38106109451287</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>30500</v>
+        <v>-162.2095001693243</v>
       </c>
       <c r="B55" t="n">
-        <v>-208.160421756734</v>
+        <v>-50.26834650193168</v>
       </c>
       <c r="C55" t="n">
-        <v>-90.31455241139115</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>-248.5321251811886</v>
       </c>
       <c r="B56" t="n">
-        <v>311.32079887922</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>301.367713178263</v>
+        <v>-51.9327626363452</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40830.97717635731</v>
+        <v>-167.5393539642746</v>
       </c>
       <c r="B57" t="n">
-        <v>-95.90961781012629</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>194.7284379817511</v>
+        <v>-55.02447576266741</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2911271.86896832</v>
+        <v>313.5681224945225</v>
       </c>
       <c r="B58" t="n">
-        <v>-247.8325875163777</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>88.73157937116545</v>
+        <v>-181.6137412328931</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>19433.41874380765</v>
+        <v>431.0785210700628</v>
       </c>
       <c r="B59" t="n">
-        <v>-205.4983996167555</v>
+        <v>-15.94012703751784</v>
       </c>
       <c r="C59" t="n">
-        <v>-88.03623544923002</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>-191.1355177162409</v>
       </c>
       <c r="B60" t="n">
-        <v>-86.11716187495426</v>
+        <v>-50.33528314688468</v>
       </c>
       <c r="C60" t="n">
-        <v>-90.47043091075653</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>280744.9702550099</v>
+        <v>381.7452193822196</v>
       </c>
       <c r="B61" t="n">
-        <v>-164.873969371333</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>145.3528937701483</v>
+        <v>-121.767242049202</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>30774305.31316802</v>
+        <v>478.246328965588</v>
       </c>
       <c r="B62" t="n">
-        <v>-291.5081716929007</v>
+        <v>6.30282736979462</v>
       </c>
       <c r="C62" t="n">
-        <v>-100.9687205052269</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>49954514.14071549</v>
+        <v>-248.5589768276952</v>
       </c>
       <c r="B63" t="n">
-        <v>178.6730755601911</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
-        <v>-3.694984260583226</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
+        <v>-52.32132604637474</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10</v>
+        <v>286.8965638451934</v>
       </c>
       <c r="B64" t="n">
-        <v>-115.9420077041091</v>
+        <v>-150.317739228566</v>
       </c>
       <c r="C64" t="n">
-        <v>-81.51490512761998</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>492000</v>
+        <v>-140.4091562652733</v>
       </c>
       <c r="B65" t="n">
-        <v>292.1164404909059</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="n">
-        <v>-174.2959946021145</v>
-      </c>
-      <c r="E65" t="inlineStr"/>
+        <v>-52.17248789121091</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>30500000</v>
+        <v>190.9340385080995</v>
       </c>
       <c r="B66" t="n">
-        <v>-291.3520531088164</v>
+        <v>281.5976634343192</v>
       </c>
       <c r="C66" t="n">
-        <v>-101.1047711923657</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2868522.534712504</v>
+        <v>-184.764331931677</v>
       </c>
       <c r="B67" t="n">
-        <v>-247.2775936783518</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>88.76505238343515</v>
+        <v>133.1771991242724</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1124994.013311719</v>
+        <v>286.5293994787213</v>
       </c>
       <c r="B68" t="n">
-        <v>280.5273615182192</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="n">
-        <v>-174.6727231669302</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
+        <v>-149.0889564116309</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2880000</v>
+        <v>-14.07494379671698</v>
       </c>
       <c r="B69" t="n">
-        <v>-247.4535912933455</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>89.10876808017287</v>
+        <v>223.1960361337043</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>416345.7451870226</v>
+        <v>229.574352860962</v>
       </c>
       <c r="B70" t="n">
-        <v>-238.3506620428943</v>
+        <v>0.9119930740675315</v>
       </c>
       <c r="C70" t="n">
-        <v>-96.94171607574327</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3094890.507590655</v>
+        <v>-59.95877312051653</v>
       </c>
       <c r="B71" t="n">
-        <v>-259.9309443363211</v>
+        <v>-71.05459926027572</v>
       </c>
       <c r="C71" t="n">
-        <v>-113.7793806001945</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>30413290.45028438</v>
+        <v>-222.2988412997655</v>
       </c>
       <c r="B72" t="n">
-        <v>-291.273804834211</v>
+        <v>-70.18053469253321</v>
       </c>
       <c r="C72" t="n">
-        <v>-101.6223884703266</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>328758.8362698939</v>
+        <v>-129.7373267681928</v>
       </c>
       <c r="B73" t="n">
-        <v>-170.9051795577856</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>143.6711396789222</v>
+        <v>-52.02676674486284</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>180</v>
+        <v>-98.16594752032586</v>
       </c>
       <c r="B74" t="n">
-        <v>385.5753626804612</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="n">
-        <v>-87.52330871910308</v>
-      </c>
-      <c r="E74" t="inlineStr"/>
+        <v>180.9150939469345</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>301670.6973956299</v>
+        <v>-162.8478212729196</v>
       </c>
       <c r="B75" t="n">
-        <v>298.7983127638945</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="n">
-        <v>-173.4953565250714</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
+        <v>-50.70446685942101</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3331523.084618582</v>
+        <v>-101.8200297967919</v>
       </c>
       <c r="B76" t="n">
-        <v>-260.8516890043609</v>
+        <v>181.1094412642937</v>
       </c>
       <c r="C76" t="n">
-        <v>-113.7611733372638</v>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>272.2001876966299</v>
+      </c>
+      <c r="B77" t="n">
+        <v>295.7824665919273</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-205.7871100388326</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-66.89600794009401</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>74.89458664827123</v>
+      </c>
+      <c r="B79" t="n">
+        <v>260.6778383153126</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-185.2163662555433</v>
+      </c>
+      <c r="B80" t="n">
+        <v>133.745961051294</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-11.82679840596359</v>
+      </c>
+      <c r="B81" t="n">
+        <v>224.0501068474889</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>286.9299134802445</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-149.4646977207264</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>425.5191999856536</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-108.300170548045</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-218.7930298994262</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-68.80433700984717</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>411.3307990742144</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-107.0352862998638</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-97.15711853572316</v>
+      </c>
+      <c r="B86" t="n">
+        <v>180.316333770729</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-248.6669795615733</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-52.03408458806791</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>352.7434857517494</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-143.0303431998042</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>229.2006895710691</v>
+      </c>
+      <c r="B89" t="n">
+        <v>288.473834836612</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-184.1505078308621</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-54.22507853644105</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-166.1903973605037</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-54.08954833664976</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-25.51273583163868</v>
+      </c>
+      <c r="B92" t="n">
+        <v>221.7228413168651</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-213.1939808237572</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-73.52263789180306</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-235.5298851141006</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-59.45762579242415</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>286.7660511485086</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-148.4806884727278</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>390.569383910195</v>
+      </c>
+      <c r="B96" t="n">
+        <v>289.1015544015655</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>127.1104220645852</v>
+      </c>
+      <c r="B97" t="n">
+        <v>271.0372080483741</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-40.43796043346481</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-96.21980271964688</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>229.325658547522</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.208987914474996</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-184.2787597888451</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-54.11829770419062</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>330.4584489829833</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-182.4521651946558</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
